--- a/data/model_performance.xlsx
+++ b/data/model_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,80 @@
         <v>0.9250701773268788</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-10-31-23-26-54</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>64</v>
+      </c>
+      <c r="G18" t="n">
+        <v>106.328522121165</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19700.85450868611</v>
+      </c>
+      <c r="I18" t="n">
+        <v>140.3597325043266</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1999540328979492</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6642365604186027</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-11-01-19-58-13</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" t="n">
+        <v>64</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.46708038330078</v>
+      </c>
+      <c r="H19" t="n">
+        <v>298.8550831759035</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.28742557976472</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.003033227985724807</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9949112311223018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/model_performance.xlsx
+++ b/data/model_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,80 @@
         <v>0.9949112311223018</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-11-02-12-02-57</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>43.51907484872</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3266.36466818843</v>
+      </c>
+      <c r="I20" t="n">
+        <v>57.15211866753874</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03315198048949242</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9444299182736503</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-11-02-12-05-23</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>66.63560361589704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8101.532483965885</v>
+      </c>
+      <c r="I21" t="n">
+        <v>90.0085133971553</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.08222655951976776</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.862170067345129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/model_performance.xlsx
+++ b/data/model_performance.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Data Split</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>2023-10-18-22-14-25</t>
+  </si>
+  <si>
+    <t>2023-10-18-22-37-08</t>
+  </si>
+  <si>
+    <t>2023-10-18-22-54-54</t>
+  </si>
+  <si>
+    <t>2023-10-18-23-14-36</t>
+  </si>
+  <si>
+    <t>2023-10-18-23-53-43</t>
+  </si>
+  <si>
+    <t>2023-10-19-00-00-00</t>
+  </si>
+  <si>
+    <t>2023-10-19-00-04-03</t>
+  </si>
+  <si>
+    <t>2023-10-19-00-14-11</t>
+  </si>
+  <si>
+    <t>2023-10-19-00-45-11</t>
+  </si>
+  <si>
+    <t>2023-10-19-01-39-33</t>
+  </si>
+  <si>
+    <t>2023-10-19-01-45-59</t>
+  </si>
+  <si>
+    <t>2023-10-19-01-50-03</t>
+  </si>
+  <si>
+    <t>2023-10-19-02-06-06</t>
+  </si>
+  <si>
+    <t>2023-10-19-02-32-16</t>
+  </si>
+  <si>
+    <t>2023-10-19-03-19-50</t>
+  </si>
+  <si>
+    <t>2023-10-19-03-28-59</t>
+  </si>
+  <si>
+    <t>2023-10-31-23-26-54</t>
+  </si>
+  <si>
+    <t>2023-11-01-19-58-13</t>
+  </si>
+  <si>
+    <t>2023-11-02-12-02-57</t>
+  </si>
+  <si>
+    <t>2023-11-02-12-05-23</t>
+  </si>
+  <si>
+    <t>2024-03-18-16-38-09</t>
+  </si>
+  <si>
+    <t>2024-03-18-16-42-56</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,817 +469,819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data Split</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Patience</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Batch Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Test Loss</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-10-18-22-14-25</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>35.74995792372544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2361.899694537421</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>48.59937956947002</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.02397211082279682</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.9595165555286057</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-10-18-22-37-08</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
         <v>32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>23.48744939495736</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1082.260422363083</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>32.89772670509442</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.01098440308123827</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.9814498347183602</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-10-18-22-54-54</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>32</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>56.92094401740209</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>5625.664935747555</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>75.00443277398713</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.05709772184491158</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.9035749508890086</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-10-18-23-14-36</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
         <v>90</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>300</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>32</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>50.78312363303952</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>5105.112485652649</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>71.45006987857079</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.05181436613202095</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.9124973264905656</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-10-18-23-53-43</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
         <v>200</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>500</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>145.6974353599275</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>40300.02049302011</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>200.748650040343</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.4090254306793213</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.3092493954766523</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-10-19-00-00-00</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>64</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>34.10388049342602</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2074.292850253553</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>45.54440525743588</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.02105304412543774</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.964446195740291</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-10-19-00-04-03</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
         <v>64</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>21.97602235196486</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>866.6277811754946</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>29.43854244312199</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.008795838803052999</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.9851458223489643</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-10-19-00-14-11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>100</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>64</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>11.05596965304089</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>188.5197090040229</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>13.73024795857755</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.001913381041959</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.996768733579636</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-10-19-00-45-11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
         <v>90</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>64</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>35.22631981103376</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2473.566011161005</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>49.73495763706857</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.02510547265410423</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.9576025719928902</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-10-19-01-39-33</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>500</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>64</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>100.4222259958074</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>20153.57324915292</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>141.9632813411726</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.2045488953590393</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.6545636271433397</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-10-19-01-45-59</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>128</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>71.40782833508668</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>9322.012579537923</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>96.55057006324677</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0.09461383521556854</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>0.8402187952781481</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-10-19-01-50-03</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
         <v>128</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>37.0163931676076</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>2360.368833211136</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>48.58362721340531</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0.02395657449960709</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>0.9595427948052521</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-10-19-02-06-06</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
         <v>40</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>128</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>32.21095377385872</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1876.931932566146</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>43.32357248157342</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.01904992572963238</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.9678290022881306</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-10-19-02-32-16</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
         <v>90</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>128</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>37.75937830497949</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2581.44888497312</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>50.80796084250105</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.0262004267424345</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.9557534374417963</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-10-19-03-19-50</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>500</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>128</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>46.04100989476805</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>4398.158928641433</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>66.31861675760007</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.04463913291692734</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.9246146552388228</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-10-19-03-28-59</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>64</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>51.45759377322654</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>4371.5826949567</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>66.11794533223714</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.0443694032728672</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.9250701773268788</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-10-31-23-26-54</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>64</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>106.328522121165</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>19700.85450868611</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>140.3597325043266</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.1999540328979492</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.6642365604186027</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-11-01-19-58-13</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="E19" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
         <v>64</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>13.46708038330078</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>298.8550831759035</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>17.28742557976472</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.003033227985724807</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.9949112311223018</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-11-02-12-02-57</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.8</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
         <v>64</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>43.51907484872</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>3266.36466818843</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>57.15211866753874</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.03315198048949242</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.9444299182736503</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-11-02-12-05-23</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>64</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>66.63560361589704</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>8101.532483965885</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>90.0085133971553</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.08222655951976776</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.862170067345129</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>80.49338069856587</v>
+      </c>
+      <c r="H22">
+        <v>12856.83311234367</v>
+      </c>
+      <c r="I22">
+        <v>113.3879760483609</v>
+      </c>
+      <c r="J22">
+        <v>0.1304905116558075</v>
+      </c>
+      <c r="K22">
+        <v>0.8187115645185811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>61.47837212997027</v>
+      </c>
+      <c r="H23">
+        <v>7342.699061184247</v>
+      </c>
+      <c r="I23">
+        <v>85.68955047836491</v>
+      </c>
+      <c r="J23">
+        <v>0.07452476769685745</v>
+      </c>
+      <c r="K23">
+        <v>0.8964638948502054</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>